--- a/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/09-套打.xpt.xlsx
+++ b/nop-report/nop-report-demo/src/main/resources/_vfs/nop/report/demo/base/09-套打.xpt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-report\nop-report-demo\src\main\resources\_vfs\nop\report\demo\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850A9C0F-7E11-4960-B90E-36FEC4AF3222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBBC8F7-6EDB-4B79-A0BB-F93CFCA4A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -285,7 +285,7 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fPrintsWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
@@ -739,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729F60EE-C3E2-4150-A607-D2A66A2F4296}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G2"/>
     </sheetView>
   </sheetViews>
